--- a/xlsx/朝鲜战争_intext.xlsx
+++ b/xlsx/朝鲜战争_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2612">
   <si>
     <t>朝鲜战争</t>
   </si>
@@ -29,7 +29,7 @@
     <t>朝鮮半島</t>
   </si>
   <si>
-    <t>政策_政策_美國_朝鲜战争</t>
+    <t>体育运动_体育运动_犹太人大屠杀_朝鲜战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E7%88%AD</t>
@@ -4275,6 +4275,12 @@
   </si>
   <si>
     <t>黎巴嫩內戰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%B9%E9%9D%A9%E5%BC%80%E6%94%BE</t>
+  </si>
+  <si>
+    <t>改革开放</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E8%B6%8A%E6%88%B0%E7%88%AD</t>
@@ -8193,7 +8199,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1387"/>
+  <dimension ref="A1:I1388"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8276,7 +8282,7 @@
         <v>6</v>
       </c>
       <c r="G3" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H3" t="s">
         <v>4</v>
@@ -23994,7 +24000,7 @@
         <v>1029</v>
       </c>
       <c r="G545" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H545" t="s">
         <v>4</v>
@@ -30751,7 +30757,7 @@
         <v>1441</v>
       </c>
       <c r="G778" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H778" t="s">
         <v>4</v>
@@ -30780,7 +30786,7 @@
         <v>1443</v>
       </c>
       <c r="G779" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H779" t="s">
         <v>4</v>
@@ -30954,7 +30960,7 @@
         <v>1455</v>
       </c>
       <c r="G785" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H785" t="s">
         <v>4</v>
@@ -30983,7 +30989,7 @@
         <v>1457</v>
       </c>
       <c r="G786" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H786" t="s">
         <v>4</v>
@@ -31209,10 +31215,10 @@
         <v>793</v>
       </c>
       <c r="E794" t="s">
-        <v>1266</v>
+        <v>1472</v>
       </c>
       <c r="F794" t="s">
-        <v>1267</v>
+        <v>1473</v>
       </c>
       <c r="G794" t="n">
         <v>1</v>
@@ -31238,10 +31244,10 @@
         <v>794</v>
       </c>
       <c r="E795" t="s">
-        <v>1472</v>
+        <v>1266</v>
       </c>
       <c r="F795" t="s">
-        <v>1473</v>
+        <v>1267</v>
       </c>
       <c r="G795" t="n">
         <v>1</v>
@@ -31795,7 +31801,7 @@
         <v>1511</v>
       </c>
       <c r="G814" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H814" t="s">
         <v>4</v>
@@ -31824,7 +31830,7 @@
         <v>1513</v>
       </c>
       <c r="G815" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H815" t="s">
         <v>4</v>
@@ -32027,7 +32033,7 @@
         <v>1527</v>
       </c>
       <c r="G822" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H822" t="s">
         <v>4</v>
@@ -32056,7 +32062,7 @@
         <v>1529</v>
       </c>
       <c r="G823" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H823" t="s">
         <v>4</v>
@@ -32462,7 +32468,7 @@
         <v>1557</v>
       </c>
       <c r="G837" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H837" t="s">
         <v>4</v>
@@ -32520,7 +32526,7 @@
         <v>1561</v>
       </c>
       <c r="G839" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H839" t="s">
         <v>4</v>
@@ -32578,7 +32584,7 @@
         <v>1565</v>
       </c>
       <c r="G841" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H841" t="s">
         <v>4</v>
@@ -32607,7 +32613,7 @@
         <v>1567</v>
       </c>
       <c r="G842" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H842" t="s">
         <v>4</v>
@@ -32868,7 +32874,7 @@
         <v>1585</v>
       </c>
       <c r="G851" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H851" t="s">
         <v>4</v>
@@ -32897,7 +32903,7 @@
         <v>1587</v>
       </c>
       <c r="G852" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H852" t="s">
         <v>4</v>
@@ -33384,10 +33390,10 @@
         <v>868</v>
       </c>
       <c r="E869" t="s">
-        <v>1202</v>
+        <v>1620</v>
       </c>
       <c r="F869" t="s">
-        <v>1203</v>
+        <v>1621</v>
       </c>
       <c r="G869" t="n">
         <v>1</v>
@@ -33413,10 +33419,10 @@
         <v>869</v>
       </c>
       <c r="E870" t="s">
-        <v>1620</v>
+        <v>1202</v>
       </c>
       <c r="F870" t="s">
-        <v>1621</v>
+        <v>1203</v>
       </c>
       <c r="G870" t="n">
         <v>1</v>
@@ -33709,7 +33715,7 @@
         <v>1641</v>
       </c>
       <c r="G880" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H880" t="s">
         <v>4</v>
@@ -33738,7 +33744,7 @@
         <v>1643</v>
       </c>
       <c r="G881" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H881" t="s">
         <v>4</v>
@@ -33912,7 +33918,7 @@
         <v>1655</v>
       </c>
       <c r="G887" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H887" t="s">
         <v>4</v>
@@ -33941,7 +33947,7 @@
         <v>1657</v>
       </c>
       <c r="G888" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H888" t="s">
         <v>4</v>
@@ -34115,7 +34121,7 @@
         <v>1669</v>
       </c>
       <c r="G894" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H894" t="s">
         <v>4</v>
@@ -34144,7 +34150,7 @@
         <v>1671</v>
       </c>
       <c r="G895" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H895" t="s">
         <v>4</v>
@@ -34457,10 +34463,10 @@
         <v>905</v>
       </c>
       <c r="E906" t="s">
-        <v>687</v>
+        <v>1692</v>
       </c>
       <c r="F906" t="s">
-        <v>688</v>
+        <v>1693</v>
       </c>
       <c r="G906" t="n">
         <v>1</v>
@@ -34486,10 +34492,10 @@
         <v>906</v>
       </c>
       <c r="E907" t="s">
-        <v>1692</v>
+        <v>687</v>
       </c>
       <c r="F907" t="s">
-        <v>1693</v>
+        <v>688</v>
       </c>
       <c r="G907" t="n">
         <v>1</v>
@@ -34544,13 +34550,13 @@
         <v>908</v>
       </c>
       <c r="E909" t="s">
-        <v>775</v>
+        <v>1696</v>
       </c>
       <c r="F909" t="s">
-        <v>776</v>
+        <v>1697</v>
       </c>
       <c r="G909" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H909" t="s">
         <v>4</v>
@@ -34573,10 +34579,10 @@
         <v>909</v>
       </c>
       <c r="E910" t="s">
-        <v>1696</v>
+        <v>775</v>
       </c>
       <c r="F910" t="s">
-        <v>1697</v>
+        <v>776</v>
       </c>
       <c r="G910" t="n">
         <v>3</v>
@@ -34608,7 +34614,7 @@
         <v>1699</v>
       </c>
       <c r="G911" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H911" t="s">
         <v>4</v>
@@ -34985,7 +34991,7 @@
         <v>1725</v>
       </c>
       <c r="G924" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H924" t="s">
         <v>4</v>
@@ -35014,7 +35020,7 @@
         <v>1727</v>
       </c>
       <c r="G925" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H925" t="s">
         <v>4</v>
@@ -35391,7 +35397,7 @@
         <v>1753</v>
       </c>
       <c r="G938" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H938" t="s">
         <v>4</v>
@@ -35420,7 +35426,7 @@
         <v>1755</v>
       </c>
       <c r="G939" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H939" t="s">
         <v>4</v>
@@ -35443,10 +35449,10 @@
         <v>939</v>
       </c>
       <c r="E940" t="s">
-        <v>1464</v>
+        <v>1756</v>
       </c>
       <c r="F940" t="s">
-        <v>1465</v>
+        <v>1757</v>
       </c>
       <c r="G940" t="n">
         <v>1</v>
@@ -35472,10 +35478,10 @@
         <v>940</v>
       </c>
       <c r="E941" t="s">
-        <v>1756</v>
+        <v>1466</v>
       </c>
       <c r="F941" t="s">
-        <v>1757</v>
+        <v>1467</v>
       </c>
       <c r="G941" t="n">
         <v>1</v>
@@ -35971,7 +35977,7 @@
         <v>1791</v>
       </c>
       <c r="G958" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H958" t="s">
         <v>4</v>
@@ -36000,7 +36006,7 @@
         <v>1793</v>
       </c>
       <c r="G959" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H959" t="s">
         <v>4</v>
@@ -36081,13 +36087,13 @@
         <v>961</v>
       </c>
       <c r="E962" t="s">
-        <v>1366</v>
+        <v>1798</v>
       </c>
       <c r="F962" t="s">
-        <v>1367</v>
+        <v>1799</v>
       </c>
       <c r="G962" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H962" t="s">
         <v>4</v>
@@ -36110,13 +36116,13 @@
         <v>962</v>
       </c>
       <c r="E963" t="s">
-        <v>1798</v>
+        <v>1366</v>
       </c>
       <c r="F963" t="s">
-        <v>1799</v>
+        <v>1367</v>
       </c>
       <c r="G963" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H963" t="s">
         <v>4</v>
@@ -36168,10 +36174,10 @@
         <v>964</v>
       </c>
       <c r="E965" t="s">
-        <v>1424</v>
+        <v>1802</v>
       </c>
       <c r="F965" t="s">
-        <v>1425</v>
+        <v>1803</v>
       </c>
       <c r="G965" t="n">
         <v>1</v>
@@ -36197,10 +36203,10 @@
         <v>965</v>
       </c>
       <c r="E966" t="s">
-        <v>1422</v>
+        <v>1426</v>
       </c>
       <c r="F966" t="s">
-        <v>1423</v>
+        <v>1427</v>
       </c>
       <c r="G966" t="n">
         <v>1</v>
@@ -36226,10 +36232,10 @@
         <v>966</v>
       </c>
       <c r="E967" t="s">
-        <v>1802</v>
+        <v>1424</v>
       </c>
       <c r="F967" t="s">
-        <v>1803</v>
+        <v>1425</v>
       </c>
       <c r="G967" t="n">
         <v>1</v>
@@ -36406,7 +36412,7 @@
         <v>1815</v>
       </c>
       <c r="G973" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H973" t="s">
         <v>4</v>
@@ -36435,7 +36441,7 @@
         <v>1817</v>
       </c>
       <c r="G974" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H974" t="s">
         <v>4</v>
@@ -36464,7 +36470,7 @@
         <v>1819</v>
       </c>
       <c r="G975" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H975" t="s">
         <v>4</v>
@@ -36493,7 +36499,7 @@
         <v>1821</v>
       </c>
       <c r="G976" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H976" t="s">
         <v>4</v>
@@ -36516,13 +36522,13 @@
         <v>976</v>
       </c>
       <c r="E977" t="s">
-        <v>1240</v>
+        <v>1822</v>
       </c>
       <c r="F977" t="s">
-        <v>1241</v>
+        <v>1823</v>
       </c>
       <c r="G977" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H977" t="s">
         <v>4</v>
@@ -36545,13 +36551,13 @@
         <v>977</v>
       </c>
       <c r="E978" t="s">
-        <v>1344</v>
+        <v>1240</v>
       </c>
       <c r="F978" t="s">
-        <v>1345</v>
+        <v>1241</v>
       </c>
       <c r="G978" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H978" t="s">
         <v>4</v>
@@ -36574,10 +36580,10 @@
         <v>978</v>
       </c>
       <c r="E979" t="s">
-        <v>1822</v>
+        <v>1344</v>
       </c>
       <c r="F979" t="s">
-        <v>1823</v>
+        <v>1345</v>
       </c>
       <c r="G979" t="n">
         <v>1</v>
@@ -37270,13 +37276,13 @@
         <v>1002</v>
       </c>
       <c r="E1003" t="s">
-        <v>165</v>
+        <v>1870</v>
       </c>
       <c r="F1003" t="s">
-        <v>166</v>
+        <v>1871</v>
       </c>
       <c r="G1003" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1003" t="s">
         <v>4</v>
@@ -37299,13 +37305,13 @@
         <v>1003</v>
       </c>
       <c r="E1004" t="s">
-        <v>1870</v>
+        <v>165</v>
       </c>
       <c r="F1004" t="s">
-        <v>1871</v>
+        <v>166</v>
       </c>
       <c r="G1004" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="H1004" t="s">
         <v>4</v>
@@ -37334,7 +37340,7 @@
         <v>1873</v>
       </c>
       <c r="G1005" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H1005" t="s">
         <v>4</v>
@@ -37415,10 +37421,10 @@
         <v>1007</v>
       </c>
       <c r="E1008" t="s">
-        <v>1352</v>
+        <v>1878</v>
       </c>
       <c r="F1008" t="s">
-        <v>1353</v>
+        <v>1879</v>
       </c>
       <c r="G1008" t="n">
         <v>1</v>
@@ -37444,10 +37450,10 @@
         <v>1008</v>
       </c>
       <c r="E1009" t="s">
-        <v>1414</v>
+        <v>1352</v>
       </c>
       <c r="F1009" t="s">
-        <v>1415</v>
+        <v>1353</v>
       </c>
       <c r="G1009" t="n">
         <v>1</v>
@@ -37473,10 +37479,10 @@
         <v>1009</v>
       </c>
       <c r="E1010" t="s">
-        <v>1440</v>
+        <v>1414</v>
       </c>
       <c r="F1010" t="s">
-        <v>1441</v>
+        <v>1415</v>
       </c>
       <c r="G1010" t="n">
         <v>1</v>
@@ -37502,10 +37508,10 @@
         <v>1010</v>
       </c>
       <c r="E1011" t="s">
-        <v>1878</v>
+        <v>1442</v>
       </c>
       <c r="F1011" t="s">
-        <v>1879</v>
+        <v>1443</v>
       </c>
       <c r="G1011" t="n">
         <v>1</v>
@@ -37537,7 +37543,7 @@
         <v>1881</v>
       </c>
       <c r="G1012" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H1012" t="s">
         <v>4</v>
@@ -37566,7 +37572,7 @@
         <v>1883</v>
       </c>
       <c r="G1013" t="n">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="H1013" t="s">
         <v>4</v>
@@ -37595,7 +37601,7 @@
         <v>1885</v>
       </c>
       <c r="G1014" t="n">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="H1014" t="s">
         <v>4</v>
@@ -37624,7 +37630,7 @@
         <v>1887</v>
       </c>
       <c r="G1015" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H1015" t="s">
         <v>4</v>
@@ -37653,7 +37659,7 @@
         <v>1889</v>
       </c>
       <c r="G1016" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1016" t="s">
         <v>4</v>
@@ -37740,7 +37746,7 @@
         <v>1895</v>
       </c>
       <c r="G1019" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1019" t="s">
         <v>4</v>
@@ -37856,7 +37862,7 @@
         <v>1903</v>
       </c>
       <c r="G1023" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1023" t="s">
         <v>4</v>
@@ -37885,7 +37891,7 @@
         <v>1905</v>
       </c>
       <c r="G1024" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1024" t="s">
         <v>4</v>
@@ -37914,7 +37920,7 @@
         <v>1907</v>
       </c>
       <c r="G1025" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1025" t="s">
         <v>4</v>
@@ -37972,7 +37978,7 @@
         <v>1911</v>
       </c>
       <c r="G1027" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1027" t="s">
         <v>4</v>
@@ -38059,7 +38065,7 @@
         <v>1917</v>
       </c>
       <c r="G1030" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1030" t="s">
         <v>4</v>
@@ -38088,7 +38094,7 @@
         <v>1919</v>
       </c>
       <c r="G1031" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1031" t="s">
         <v>4</v>
@@ -38262,7 +38268,7 @@
         <v>1931</v>
       </c>
       <c r="G1037" t="n">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="H1037" t="s">
         <v>4</v>
@@ -38291,7 +38297,7 @@
         <v>1933</v>
       </c>
       <c r="G1038" t="n">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="H1038" t="s">
         <v>4</v>
@@ -38349,7 +38355,7 @@
         <v>1937</v>
       </c>
       <c r="G1040" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1040" t="s">
         <v>4</v>
@@ -38378,7 +38384,7 @@
         <v>1939</v>
       </c>
       <c r="G1041" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H1041" t="s">
         <v>4</v>
@@ -38407,7 +38413,7 @@
         <v>1941</v>
       </c>
       <c r="G1042" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1042" t="s">
         <v>4</v>
@@ -38581,7 +38587,7 @@
         <v>1953</v>
       </c>
       <c r="G1048" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1048" t="s">
         <v>4</v>
@@ -38610,7 +38616,7 @@
         <v>1955</v>
       </c>
       <c r="G1049" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H1049" t="s">
         <v>4</v>
@@ -38639,7 +38645,7 @@
         <v>1957</v>
       </c>
       <c r="G1050" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H1050" t="s">
         <v>4</v>
@@ -38668,7 +38674,7 @@
         <v>1959</v>
       </c>
       <c r="G1051" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H1051" t="s">
         <v>4</v>
@@ -38697,7 +38703,7 @@
         <v>1961</v>
       </c>
       <c r="G1052" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1052" t="s">
         <v>4</v>
@@ -38726,7 +38732,7 @@
         <v>1963</v>
       </c>
       <c r="G1053" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H1053" t="s">
         <v>4</v>
@@ -38755,7 +38761,7 @@
         <v>1965</v>
       </c>
       <c r="G1054" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H1054" t="s">
         <v>4</v>
@@ -38784,7 +38790,7 @@
         <v>1967</v>
       </c>
       <c r="G1055" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1055" t="s">
         <v>4</v>
@@ -38981,10 +38987,10 @@
         <v>1061</v>
       </c>
       <c r="E1062" t="s">
-        <v>1972</v>
+        <v>1980</v>
       </c>
       <c r="F1062" t="s">
-        <v>1973</v>
+        <v>1981</v>
       </c>
       <c r="G1062" t="n">
         <v>1</v>
@@ -39010,10 +39016,10 @@
         <v>1062</v>
       </c>
       <c r="E1063" t="s">
-        <v>1980</v>
+        <v>1974</v>
       </c>
       <c r="F1063" t="s">
-        <v>1981</v>
+        <v>1975</v>
       </c>
       <c r="G1063" t="n">
         <v>1</v>
@@ -39393,7 +39399,7 @@
         <v>2007</v>
       </c>
       <c r="G1076" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="H1076" t="s">
         <v>4</v>
@@ -39422,7 +39428,7 @@
         <v>2009</v>
       </c>
       <c r="G1077" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="H1077" t="s">
         <v>4</v>
@@ -39445,13 +39451,13 @@
         <v>1077</v>
       </c>
       <c r="E1078" t="s">
-        <v>1866</v>
+        <v>2010</v>
       </c>
       <c r="F1078" t="s">
-        <v>1867</v>
+        <v>2011</v>
       </c>
       <c r="G1078" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1078" t="s">
         <v>4</v>
@@ -39474,10 +39480,10 @@
         <v>1078</v>
       </c>
       <c r="E1079" t="s">
-        <v>2010</v>
+        <v>1868</v>
       </c>
       <c r="F1079" t="s">
-        <v>2011</v>
+        <v>1869</v>
       </c>
       <c r="G1079" t="n">
         <v>1</v>
@@ -40576,10 +40582,10 @@
         <v>1116</v>
       </c>
       <c r="E1117" t="s">
-        <v>1908</v>
+        <v>2086</v>
       </c>
       <c r="F1117" t="s">
-        <v>1909</v>
+        <v>2087</v>
       </c>
       <c r="G1117" t="n">
         <v>1</v>
@@ -40605,10 +40611,10 @@
         <v>1117</v>
       </c>
       <c r="E1118" t="s">
-        <v>2086</v>
+        <v>1910</v>
       </c>
       <c r="F1118" t="s">
-        <v>2087</v>
+        <v>1911</v>
       </c>
       <c r="G1118" t="n">
         <v>1</v>
@@ -40843,7 +40849,7 @@
         <v>2103</v>
       </c>
       <c r="G1126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1126" t="s">
         <v>4</v>
@@ -40872,7 +40878,7 @@
         <v>2105</v>
       </c>
       <c r="G1127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1127" t="s">
         <v>4</v>
@@ -40895,13 +40901,13 @@
         <v>1127</v>
       </c>
       <c r="E1128" t="s">
-        <v>2104</v>
+        <v>2106</v>
       </c>
       <c r="F1128" t="s">
-        <v>2105</v>
+        <v>2107</v>
       </c>
       <c r="G1128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1128" t="s">
         <v>4</v>
@@ -40924,10 +40930,10 @@
         <v>1128</v>
       </c>
       <c r="E1129" t="s">
-        <v>2104</v>
+        <v>2106</v>
       </c>
       <c r="F1129" t="s">
-        <v>2105</v>
+        <v>2107</v>
       </c>
       <c r="G1129" t="n">
         <v>2</v>
@@ -40959,7 +40965,7 @@
         <v>2107</v>
       </c>
       <c r="G1130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1130" t="s">
         <v>4</v>
@@ -41214,10 +41220,10 @@
         <v>1138</v>
       </c>
       <c r="E1139" t="s">
-        <v>1952</v>
+        <v>2124</v>
       </c>
       <c r="F1139" t="s">
-        <v>1953</v>
+        <v>2125</v>
       </c>
       <c r="G1139" t="n">
         <v>1</v>
@@ -41243,10 +41249,10 @@
         <v>1139</v>
       </c>
       <c r="E1140" t="s">
-        <v>2124</v>
+        <v>1954</v>
       </c>
       <c r="F1140" t="s">
-        <v>2125</v>
+        <v>1955</v>
       </c>
       <c r="G1140" t="n">
         <v>1</v>
@@ -41597,7 +41603,7 @@
         <v>2149</v>
       </c>
       <c r="G1152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1152" t="s">
         <v>4</v>
@@ -41655,7 +41661,7 @@
         <v>2153</v>
       </c>
       <c r="G1154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1154" t="s">
         <v>4</v>
@@ -42032,7 +42038,7 @@
         <v>2179</v>
       </c>
       <c r="G1167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1167" t="s">
         <v>4</v>
@@ -42061,7 +42067,7 @@
         <v>2181</v>
       </c>
       <c r="G1168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1168" t="s">
         <v>4</v>
@@ -43047,7 +43053,7 @@
         <v>2249</v>
       </c>
       <c r="G1202" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1202" t="s">
         <v>4</v>
@@ -43076,7 +43082,7 @@
         <v>2251</v>
       </c>
       <c r="G1203" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1203" t="s">
         <v>4</v>
@@ -43418,13 +43424,13 @@
         <v>1214</v>
       </c>
       <c r="E1215" t="s">
-        <v>1224</v>
+        <v>2274</v>
       </c>
       <c r="F1215" t="s">
-        <v>1225</v>
+        <v>2275</v>
       </c>
       <c r="G1215" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1215" t="s">
         <v>4</v>
@@ -43447,13 +43453,13 @@
         <v>1215</v>
       </c>
       <c r="E1216" t="s">
-        <v>2274</v>
+        <v>1224</v>
       </c>
       <c r="F1216" t="s">
-        <v>2275</v>
+        <v>1225</v>
       </c>
       <c r="G1216" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1216" t="s">
         <v>4</v>
@@ -43592,10 +43598,10 @@
         <v>1220</v>
       </c>
       <c r="E1221" t="s">
-        <v>1240</v>
+        <v>2284</v>
       </c>
       <c r="F1221" t="s">
-        <v>1241</v>
+        <v>2285</v>
       </c>
       <c r="G1221" t="n">
         <v>1</v>
@@ -43621,10 +43627,10 @@
         <v>1221</v>
       </c>
       <c r="E1222" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="F1222" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="G1222" t="n">
         <v>1</v>
@@ -43650,10 +43656,10 @@
         <v>1222</v>
       </c>
       <c r="E1223" t="s">
-        <v>2284</v>
+        <v>1242</v>
       </c>
       <c r="F1223" t="s">
-        <v>2285</v>
+        <v>1243</v>
       </c>
       <c r="G1223" t="n">
         <v>1</v>
@@ -43830,7 +43836,7 @@
         <v>2297</v>
       </c>
       <c r="G1229" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1229" t="s">
         <v>4</v>
@@ -43859,7 +43865,7 @@
         <v>2299</v>
       </c>
       <c r="G1230" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1230" t="s">
         <v>4</v>
@@ -44033,7 +44039,7 @@
         <v>2311</v>
       </c>
       <c r="G1236" t="n">
-        <v>211</v>
+        <v>1</v>
       </c>
       <c r="H1236" t="s">
         <v>4</v>
@@ -44062,7 +44068,7 @@
         <v>2313</v>
       </c>
       <c r="G1237" t="n">
-        <v>20</v>
+        <v>211</v>
       </c>
       <c r="H1237" t="s">
         <v>4</v>
@@ -44091,7 +44097,7 @@
         <v>2315</v>
       </c>
       <c r="G1238" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H1238" t="s">
         <v>4</v>
@@ -44468,7 +44474,7 @@
         <v>2341</v>
       </c>
       <c r="G1251" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1251" t="s">
         <v>4</v>
@@ -44497,7 +44503,7 @@
         <v>2343</v>
       </c>
       <c r="G1252" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H1252" t="s">
         <v>4</v>
@@ -44526,7 +44532,7 @@
         <v>2345</v>
       </c>
       <c r="G1253" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H1253" t="s">
         <v>4</v>
@@ -44555,7 +44561,7 @@
         <v>2347</v>
       </c>
       <c r="G1254" t="n">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="H1254" t="s">
         <v>4</v>
@@ -44584,7 +44590,7 @@
         <v>2349</v>
       </c>
       <c r="G1255" t="n">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="H1255" t="s">
         <v>4</v>
@@ -44671,7 +44677,7 @@
         <v>2355</v>
       </c>
       <c r="G1258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1258" t="s">
         <v>4</v>
@@ -44700,7 +44706,7 @@
         <v>2357</v>
       </c>
       <c r="G1259" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1259" t="s">
         <v>4</v>
@@ -44729,7 +44735,7 @@
         <v>2359</v>
       </c>
       <c r="G1260" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1260" t="s">
         <v>4</v>
@@ -44816,7 +44822,7 @@
         <v>2365</v>
       </c>
       <c r="G1263" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H1263" t="s">
         <v>4</v>
@@ -44845,7 +44851,7 @@
         <v>2367</v>
       </c>
       <c r="G1264" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H1264" t="s">
         <v>4</v>
@@ -44961,7 +44967,7 @@
         <v>2375</v>
       </c>
       <c r="G1268" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H1268" t="s">
         <v>4</v>
@@ -44990,7 +44996,7 @@
         <v>2377</v>
       </c>
       <c r="G1269" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H1269" t="s">
         <v>4</v>
@@ -45019,7 +45025,7 @@
         <v>2379</v>
       </c>
       <c r="G1270" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1270" t="s">
         <v>4</v>
@@ -45048,7 +45054,7 @@
         <v>2381</v>
       </c>
       <c r="G1271" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1271" t="s">
         <v>4</v>
@@ -45280,7 +45286,7 @@
         <v>2397</v>
       </c>
       <c r="G1279" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H1279" t="s">
         <v>4</v>
@@ -45309,7 +45315,7 @@
         <v>2399</v>
       </c>
       <c r="G1280" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H1280" t="s">
         <v>4</v>
@@ -45332,10 +45338,10 @@
         <v>1280</v>
       </c>
       <c r="E1281" t="s">
-        <v>1510</v>
+        <v>2400</v>
       </c>
       <c r="F1281" t="s">
-        <v>1511</v>
+        <v>2401</v>
       </c>
       <c r="G1281" t="n">
         <v>1</v>
@@ -45361,10 +45367,10 @@
         <v>1281</v>
       </c>
       <c r="E1282" t="s">
-        <v>2400</v>
+        <v>1512</v>
       </c>
       <c r="F1282" t="s">
-        <v>2401</v>
+        <v>1513</v>
       </c>
       <c r="G1282" t="n">
         <v>1</v>
@@ -45483,7 +45489,7 @@
         <v>2409</v>
       </c>
       <c r="G1286" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="H1286" t="s">
         <v>4</v>
@@ -45512,7 +45518,7 @@
         <v>2411</v>
       </c>
       <c r="G1287" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="H1287" t="s">
         <v>4</v>
@@ -45535,13 +45541,13 @@
         <v>1287</v>
       </c>
       <c r="E1288" t="s">
-        <v>25</v>
+        <v>2412</v>
       </c>
       <c r="F1288" t="s">
-        <v>26</v>
+        <v>2413</v>
       </c>
       <c r="G1288" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H1288" t="s">
         <v>4</v>
@@ -45564,13 +45570,13 @@
         <v>1288</v>
       </c>
       <c r="E1289" t="s">
-        <v>2412</v>
+        <v>25</v>
       </c>
       <c r="F1289" t="s">
-        <v>2413</v>
+        <v>26</v>
       </c>
       <c r="G1289" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H1289" t="s">
         <v>4</v>
@@ -45599,7 +45605,7 @@
         <v>2415</v>
       </c>
       <c r="G1290" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H1290" t="s">
         <v>4</v>
@@ -45657,7 +45663,7 @@
         <v>2419</v>
       </c>
       <c r="G1292" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="H1292" t="s">
         <v>4</v>
@@ -45686,7 +45692,7 @@
         <v>2421</v>
       </c>
       <c r="G1293" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="H1293" t="s">
         <v>4</v>
@@ -45715,7 +45721,7 @@
         <v>2423</v>
       </c>
       <c r="G1294" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H1294" t="s">
         <v>4</v>
@@ -45773,7 +45779,7 @@
         <v>2427</v>
       </c>
       <c r="G1296" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1296" t="s">
         <v>4</v>
@@ -45802,7 +45808,7 @@
         <v>2429</v>
       </c>
       <c r="G1297" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1297" t="s">
         <v>4</v>
@@ -45831,7 +45837,7 @@
         <v>2431</v>
       </c>
       <c r="G1298" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1298" t="s">
         <v>4</v>
@@ -46034,7 +46040,7 @@
         <v>2445</v>
       </c>
       <c r="G1305" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1305" t="s">
         <v>4</v>
@@ -46063,7 +46069,7 @@
         <v>2447</v>
       </c>
       <c r="G1306" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1306" t="s">
         <v>4</v>
@@ -46092,7 +46098,7 @@
         <v>2449</v>
       </c>
       <c r="G1307" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1307" t="s">
         <v>4</v>
@@ -46179,7 +46185,7 @@
         <v>2455</v>
       </c>
       <c r="G1310" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H1310" t="s">
         <v>4</v>
@@ -46208,7 +46214,7 @@
         <v>2457</v>
       </c>
       <c r="G1311" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H1311" t="s">
         <v>4</v>
@@ -46353,7 +46359,7 @@
         <v>2467</v>
       </c>
       <c r="G1316" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1316" t="s">
         <v>4</v>
@@ -46382,7 +46388,7 @@
         <v>2469</v>
       </c>
       <c r="G1317" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1317" t="s">
         <v>4</v>
@@ -46556,7 +46562,7 @@
         <v>2481</v>
       </c>
       <c r="G1323" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H1323" t="s">
         <v>4</v>
@@ -46585,7 +46591,7 @@
         <v>2483</v>
       </c>
       <c r="G1324" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H1324" t="s">
         <v>4</v>
@@ -46817,7 +46823,7 @@
         <v>2499</v>
       </c>
       <c r="G1332" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1332" t="s">
         <v>4</v>
@@ -46846,7 +46852,7 @@
         <v>2501</v>
       </c>
       <c r="G1333" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H1333" t="s">
         <v>4</v>
@@ -46875,7 +46881,7 @@
         <v>2503</v>
       </c>
       <c r="G1334" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1334" t="s">
         <v>4</v>
@@ -47020,7 +47026,7 @@
         <v>2513</v>
       </c>
       <c r="G1339" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="H1339" t="s">
         <v>4</v>
@@ -47049,7 +47055,7 @@
         <v>2515</v>
       </c>
       <c r="G1340" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H1340" t="s">
         <v>4</v>
@@ -47078,7 +47084,7 @@
         <v>2517</v>
       </c>
       <c r="G1341" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1341" t="s">
         <v>4</v>
@@ -47107,7 +47113,7 @@
         <v>2519</v>
       </c>
       <c r="G1342" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1342" t="s">
         <v>4</v>
@@ -47252,7 +47258,7 @@
         <v>2529</v>
       </c>
       <c r="G1347" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H1347" t="s">
         <v>4</v>
@@ -47281,7 +47287,7 @@
         <v>2531</v>
       </c>
       <c r="G1348" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H1348" t="s">
         <v>4</v>
@@ -47310,7 +47316,7 @@
         <v>2533</v>
       </c>
       <c r="G1349" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H1349" t="s">
         <v>4</v>
@@ -47542,7 +47548,7 @@
         <v>2549</v>
       </c>
       <c r="G1357" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1357" t="s">
         <v>4</v>
@@ -47571,7 +47577,7 @@
         <v>2551</v>
       </c>
       <c r="G1358" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1358" t="s">
         <v>4</v>
@@ -47687,7 +47693,7 @@
         <v>2559</v>
       </c>
       <c r="G1362" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1362" t="s">
         <v>4</v>
@@ -47716,7 +47722,7 @@
         <v>2561</v>
       </c>
       <c r="G1363" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1363" t="s">
         <v>4</v>
@@ -47745,7 +47751,7 @@
         <v>2563</v>
       </c>
       <c r="G1364" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H1364" t="s">
         <v>4</v>
@@ -47774,7 +47780,7 @@
         <v>2565</v>
       </c>
       <c r="G1365" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1365" t="s">
         <v>4</v>
@@ -47803,7 +47809,7 @@
         <v>2567</v>
       </c>
       <c r="G1366" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1366" t="s">
         <v>4</v>
@@ -47890,7 +47896,7 @@
         <v>2573</v>
       </c>
       <c r="G1369" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H1369" t="s">
         <v>4</v>
@@ -47919,7 +47925,7 @@
         <v>2575</v>
       </c>
       <c r="G1370" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H1370" t="s">
         <v>4</v>
@@ -47977,7 +47983,7 @@
         <v>2579</v>
       </c>
       <c r="G1372" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="H1372" t="s">
         <v>4</v>
@@ -48006,7 +48012,7 @@
         <v>2581</v>
       </c>
       <c r="G1373" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="H1373" t="s">
         <v>4</v>
@@ -48209,7 +48215,7 @@
         <v>2595</v>
       </c>
       <c r="G1380" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1380" t="s">
         <v>4</v>
@@ -48238,7 +48244,7 @@
         <v>2597</v>
       </c>
       <c r="G1381" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1381" t="s">
         <v>4</v>
@@ -48325,7 +48331,7 @@
         <v>2603</v>
       </c>
       <c r="G1384" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1384" t="s">
         <v>4</v>
@@ -48354,7 +48360,7 @@
         <v>2605</v>
       </c>
       <c r="G1385" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1385" t="s">
         <v>4</v>
@@ -48418,6 +48424,35 @@
         <v>4</v>
       </c>
       <c r="I1387" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:9">
+      <c r="A1388" s="1" t="n">
+        <v>1386</v>
+      </c>
+      <c r="B1388" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1388" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1388" t="n">
+        <v>1387</v>
+      </c>
+      <c r="E1388" t="s">
+        <v>2610</v>
+      </c>
+      <c r="F1388" t="s">
+        <v>2611</v>
+      </c>
+      <c r="G1388" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1388" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1388" t="n">
         <v>3</v>
       </c>
     </row>
